--- a/数据整理/stocks/A股/上证主板/600206-有研新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/600206-有研新材.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,331 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6159</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5630</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600206-有研新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/600206-有研新材.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.8</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +996,613 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7393</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6312</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4401</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600206-有研新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/600206-有研新材.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,133 +453,711 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005443</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国金量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>57.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006195</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国金量化多因子股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7393</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6312</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4401</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,712 +1479,134 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金规模</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320003</t>
+          <t>005443</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安先锋混合</t>
+          <t>国金量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.96</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.54</t>
+          <t>57.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5509</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010622</t>
+          <t>006195</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒越成长精选混合A</t>
+          <t>国金量化多因子股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>81.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7393</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>378010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6312</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006348</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银华盛利混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.43</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4401</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001743</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>73.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3258</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013091</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>上投摩根均衡优选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2902</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006049</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>恒越研究精选混合A/B</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.57</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2720</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007192</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>恒越研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.57</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2248</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010623</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>恒越成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2241</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>013899</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上投摩根全景优势股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>83.30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1024</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001728</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银华战略新兴灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0563</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>012621</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>诺安先锋混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>70.54</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>013092</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>上投摩根均衡优选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>81.49</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013900</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>上投摩根全景优势股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>83.30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>015077</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>上投摩根成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.30</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>